--- a/autoast/1_shp_file_job.xlsx
+++ b/autoast/1_shp_file_job.xlsx
@@ -698,7 +698,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>Queued</t>
+          <t>COMPLETE</t>
         </is>
       </c>
       <c r="N2" s="16" t="n"/>
